--- a/wsaNetball/src/test/resources/testdata.xlsx
+++ b/wsaNetball/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreej\git\WSANetBall\wsaNetball\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29440B5-166D-448C-8839-020233A5AB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270287C4-3806-494B-86EE-E9B12B0CA6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Test_Case_Name</t>
   </si>
@@ -39,13 +39,43 @@
     <t>User_is_able_to_login_into_the_nelball_application</t>
   </si>
   <si>
-    <t>Url</t>
-  </si>
-  <si>
     <t>adactrain1+st@gmail.com</t>
   </si>
   <si>
     <t>mthz0e1o</t>
+  </si>
+  <si>
+    <t>VenueName</t>
+  </si>
+  <si>
+    <t>CompetitionName</t>
+  </si>
+  <si>
+    <t>CompOneTest</t>
+  </si>
+  <si>
+    <t>WarriersVenue</t>
+  </si>
+  <si>
+    <t>User_is_able_to_create_a_new_competition</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>CompetitionType</t>
+  </si>
+  <si>
+    <t>CompetitionFormat</t>
+  </si>
+  <si>
+    <t>Weekly Competition</t>
+  </si>
+  <si>
+    <t>Knock Out</t>
   </si>
 </sst>
 </file>
@@ -116,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -146,6 +176,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,22 +560,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="87.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="999" width="11.5703125"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="1001" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,93 +589,126 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="11">
+        <v>44032</v>
+      </c>
+      <c r="I3" s="11">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="87.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="87.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="6"/>
